--- a/03-Intermediario-FerramentasImportantes.xlsx
+++ b/03-Intermediario-FerramentasImportantes.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiko\Documents\Projetos Programação\Curso-Excel-Avancado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C11458D-0F41-4332-AEBF-31C94CD755C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC7594F-0D55-4D56-AE6D-87F5559DC308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BB31A186-E4EC-430F-A80A-1CD24FDFEA95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{BB31A186-E4EC-430F-A80A-1CD24FDFEA95}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
     <sheet name="Geral" sheetId="2" r:id="rId2"/>
-    <sheet name="Calendario" sheetId="5" r:id="rId3"/>
-    <sheet name="Cliente" sheetId="3" r:id="rId4"/>
-    <sheet name="Calculos" sheetId="4" r:id="rId5"/>
+    <sheet name="FormulaSE" sheetId="6" r:id="rId3"/>
+    <sheet name="FomulaSE2" sheetId="7" r:id="rId4"/>
+    <sheet name="Calendario" sheetId="5" r:id="rId5"/>
+    <sheet name="Cliente" sheetId="3" r:id="rId6"/>
+    <sheet name="Calculos" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
   <si>
     <t>Produtos</t>
   </si>
@@ -359,6 +361,57 @@
   </si>
   <si>
     <t>CADASTROS INCOMPLETOS</t>
+  </si>
+  <si>
+    <t>vendedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor de vendas </t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>joao</t>
+  </si>
+  <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>paulo</t>
+  </si>
+  <si>
+    <t>julia</t>
+  </si>
+  <si>
+    <t>vitoria</t>
+  </si>
+  <si>
+    <t>paula</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>maximo</t>
+  </si>
+  <si>
+    <t>Escala Bonus</t>
+  </si>
+  <si>
+    <t>0 a 100</t>
+  </si>
+  <si>
+    <t>100 a 200</t>
+  </si>
+  <si>
+    <t>200 ou  mais</t>
+  </si>
+  <si>
+    <t>Penultima Compra</t>
+  </si>
+  <si>
+    <t>Fazer Contato</t>
   </si>
 </sst>
 </file>
@@ -542,7 +595,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
@@ -570,9 +623,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -580,6 +630,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Ênfase6" xfId="2" builtinId="51"/>
@@ -588,7 +643,7 @@
     <cellStyle name="Moeda" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -635,132 +690,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1269,7 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03878AB6-72A4-49D4-AD28-387A285729B5}">
   <dimension ref="A2:BE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1477,40 +1406,40 @@
       <c r="BE4" s="10"/>
     </row>
     <row r="8" spans="1:57" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="21" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1546,10 +1475,10 @@
         <f>(G9-D9)/G9</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>5</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="22">
         <f>I9-K9</f>
         <v>0</v>
       </c>
@@ -1586,10 +1515,10 @@
         <f>(G10-D10)/G10</f>
         <v>0.3</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="23">
         <v>12</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="23">
         <f>I10-K10</f>
         <v>0</v>
       </c>
@@ -1626,10 +1555,10 @@
         <f>(G11-D11)/G11</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>7</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="22">
         <f>I11-K11</f>
         <v>1</v>
       </c>
@@ -1648,8 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1665,8 +1594,8 @@
         <v>0</v>
       </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
@@ -1682,8 +1611,8 @@
         <v>0</v>
       </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -1699,8 +1628,8 @@
         <v>0</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1716,8 +1645,8 @@
         <v>0</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -1733,11 +1662,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="26"/>
+      <c r="H19" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1757,6 +1686,247 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69875C30-53F3-438A-977C-B468216CA53F}">
+  <dimension ref="C2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="27">
+        <v>100</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(AND(D3&gt;=$G$3,D3&lt;$H$3),"Ganha Bonus","Não Ganha Bonus")</f>
+        <v>Ganha Bonus</v>
+      </c>
+      <c r="G3" s="27">
+        <v>50</v>
+      </c>
+      <c r="H3" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="27">
+        <v>250</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E8" si="0">IF(AND(D4&gt;=$G$3,D4&lt;$H$3),"Ganha Bonus","Não Ganha Bonus")</f>
+        <v>Não Ganha Bonus</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="27">
+        <v>300</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Não Ganha Bonus</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="27">
+        <v>26</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Não Ganha Bonus</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="27">
+        <v>55</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ganha Bonus</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="27">
+        <v>79</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ganha Bonus</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C039452E-F74B-41A9-A6F7-8E5E2809B500}">
+  <dimension ref="C3:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="27">
+        <v>100</v>
+      </c>
+      <c r="E4" s="27">
+        <f>IF(D4&lt;100,0,IF(D4&lt;200,500,750))</f>
+        <v>500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="27">
+        <v>175</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" ref="E5:E9" si="0">IF(D5&lt;100,0,IF(D5&lt;200,500,750))</f>
+        <v>500</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="27">
+        <v>300</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="G6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="27">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="27">
+        <v>26</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="27">
+        <v>55</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="27">
+        <v>79</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F064F4-724E-4CEC-AC20-910E8A1259CC}">
   <dimension ref="E2:K17"/>
   <sheetViews>
@@ -2001,12 +2171,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DF2215-E849-4149-862A-D2BFEB964741}">
   <dimension ref="A2:BE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2015,7 +2185,8 @@
     <col min="6" max="6" width="18.6640625" style="12" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2086,10 +2257,10 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <f>COUNTBLANK(D9:I17)</f>
         <v>0</v>
       </c>
@@ -2201,6 +2372,11 @@
       <c r="BD4" s="10"/>
       <c r="BE4" s="10"/>
     </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="J6" s="28">
+        <v>42030</v>
+      </c>
+    </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
         <v>1</v>
@@ -2218,7 +2394,13 @@
         <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
@@ -2238,7 +2420,14 @@
         <v>57</v>
       </c>
       <c r="I9" s="4">
-        <v>44971</v>
+        <v>41684</v>
+      </c>
+      <c r="J9" s="28">
+        <v>41712</v>
+      </c>
+      <c r="K9" t="str">
+        <f ca="1">IF(TODAY()-J9&gt;J9-I9,"sim","não")</f>
+        <v>sim</v>
       </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.3">
@@ -2257,8 +2446,15 @@
       <c r="H10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="7">
-        <v>44971</v>
+      <c r="I10" s="4">
+        <v>41684</v>
+      </c>
+      <c r="J10" s="28">
+        <v>41712</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ref="K10:K17" ca="1" si="0">IF(TODAY()-J10&gt;J10-I10,"sim","não")</f>
+        <v>sim</v>
       </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.3">
@@ -2278,7 +2474,14 @@
         <v>57</v>
       </c>
       <c r="I11" s="4">
-        <v>44971</v>
+        <v>41684</v>
+      </c>
+      <c r="J11" s="28">
+        <v>41712</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>sim</v>
       </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.3">
@@ -2297,8 +2500,15 @@
       <c r="H12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="7">
-        <v>44971</v>
+      <c r="I12" s="4">
+        <v>41684</v>
+      </c>
+      <c r="J12" s="28">
+        <v>41712</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>sim</v>
       </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.3">
@@ -2318,7 +2528,14 @@
         <v>57</v>
       </c>
       <c r="I13" s="4">
-        <v>44975</v>
+        <v>41684</v>
+      </c>
+      <c r="J13" s="28">
+        <v>41712</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>sim</v>
       </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.3">
@@ -2337,8 +2554,15 @@
       <c r="H14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="7">
-        <v>44976</v>
+      <c r="I14" s="4">
+        <v>41684</v>
+      </c>
+      <c r="J14" s="28">
+        <v>41712</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>sim</v>
       </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.3">
@@ -2358,7 +2582,14 @@
         <v>58</v>
       </c>
       <c r="I15" s="4">
-        <v>44977</v>
+        <v>41684</v>
+      </c>
+      <c r="J15" s="28">
+        <v>41712</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>sim</v>
       </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.3">
@@ -2377,11 +2608,18 @@
       <c r="H16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="7">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="4">
+        <v>41684</v>
+      </c>
+      <c r="J16" s="28">
+        <v>41712</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>sim</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
@@ -2398,7 +2636,14 @@
         <v>58</v>
       </c>
       <c r="I17" s="4">
-        <v>44979</v>
+        <v>41684</v>
+      </c>
+      <c r="J17" s="28">
+        <v>41712</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>sim</v>
       </c>
     </row>
   </sheetData>
@@ -2418,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C1075A-F056-4B20-A6AB-9F3355E687C0}">
   <dimension ref="A4:D21"/>
   <sheetViews>
@@ -2435,10 +2680,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="26"/>
       <c r="D4" s="20" t="s">
         <v>81</v>
       </c>
